--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/1_Adana_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/1_Adana_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A703EE-7291-46C7-8BA6-1110C0E2FB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75104C76-E03E-4CA0-9CD0-929E22AF4F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="735" xr2:uid="{C562DBA6-573B-4A5C-83CE-09CD7FC033EE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="735" xr2:uid="{41EB3E2E-74E0-4487-BB3C-B66F0E9FDF35}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -20,6 +20,11 @@
     <sheet name="ŞUBAT" sheetId="136" r:id="rId5"/>
     <sheet name="OCAK" sheetId="135" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Criteria" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="3">#REF!</definedName>
@@ -129,7 +134,7 @@
     <definedName name="Z_825BD838_6642_41DE_A2D4_C5B158B48D61_.wvu.PrintTitles" localSheetId="5" hidden="1">OCAK!$B:$D,OCAK!#REF!</definedName>
     <definedName name="Z_825BD838_6642_41DE_A2D4_C5B158B48D61_.wvu.PrintTitles" localSheetId="4" hidden="1">ŞUBAT!$B:$D,ŞUBAT!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <customWorkbookViews>
     <customWorkbookView name="rkarali - Kişisel Görünüm" guid="{9D8AC7D8-AEF7-4837-91CE-18DF972B485D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1148" windowHeight="702" activeSheetId="1"/>
     <customWorkbookView name="zkoksaldi - Kişisel Görünüm" guid="{01FD6900-BC48-42DD-8C5E-28776FF2193B}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="837" activeSheetId="1"/>
@@ -491,7 +496,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="182" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -725,7 +730,7 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -734,13 +739,13 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -749,19 +754,19 @@
     <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -770,7 +775,7 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -779,7 +784,7 @@
     <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="11" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -792,13 +797,13 @@
     <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="13" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="13" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -812,13 +817,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{956F1270-2CB9-49BA-8343-4E5CFE896E22}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{4245401F-97E5-48C4-A0AB-06CEB4EFCA2C}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{AA012F30-0189-440A-8EBB-EE05D793B838}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{0D59540D-8644-47DE-9C62-965F01FCE766}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{4B693FB8-8EC6-489A-9A55-11DE7CDA08D3}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{CCFE3E06-720E-4E37-9EB4-42A24AAF9A75}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{DAA13891-2DF4-43CB-8478-DFB651B2A6AC}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{D1A8D3B7-C429-4BDE-86FD-89AB2E13547A}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{1C39E369-72CF-4053-82E7-5B710D4EB364}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{0FB0447C-7008-4893-B244-497ED8CE27DC}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{9057F98D-93B3-4F94-92AA-A6952502BA22}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{4B6BD8CA-3502-4880-870B-8CEE5E733210}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{6214BA92-B8AC-42BD-9E08-DEEF37AEC7DE}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{97C500AE-E20A-4103-9016-D6D46912E4F7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -831,6 +836,75 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Det2-Kum"/>
+      <sheetName val="Det2-Ayiçi"/>
+      <sheetName val="T1.7"/>
+      <sheetName val="T1.8"/>
+      <sheetName val="  T32"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="T38"/>
+      <sheetName val="T39"/>
+      <sheetName val="T40"/>
+      <sheetName val="T41"/>
+      <sheetName val="T42"/>
+      <sheetName val="T43"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="T38"/>
+      <sheetName val="T39"/>
+      <sheetName val="T40"/>
+      <sheetName val="T41"/>
+      <sheetName val="T42"/>
+      <sheetName val="T43"/>
+      <sheetName val="2005 OTV MAKTU KARŞILAŞTIRMA"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1119,12 +1193,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797600B3-4893-4F6A-B93C-AB025C9D4763}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768A7788-3BFA-4E79-BFBE-D3C6639D098F}">
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2429,7 +2501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A0B5EE-8FCB-4AC7-858E-9C361E5BBD2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFAEB82-E859-44C2-871D-27BCE29033DE}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3734,7 +3806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC2FEAE-7C2B-4C53-8F7C-07665FE70999}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A742FA38-DAA5-487B-AB28-A5C87A89A870}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5049,7 +5121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161276C2-EBAF-4C00-8953-180477B3C0FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D857CF85-6680-48E4-B45D-FFAF87519E2A}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6364,7 +6436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB673148-3F5A-4310-BDC1-B5D3215F73A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFA7A37-F3EE-4451-82BA-5B0433FC2B7D}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7661,7 +7733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160BD1FA-5CD5-4AD7-8654-26A7C896B5AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D083C37-C5A8-4E7D-828A-D71C2D6CB338}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
